--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H2">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>272.2936030529209</v>
+        <v>2666.858641429536</v>
       </c>
       <c r="R2">
-        <v>272.2936030529209</v>
+        <v>24001.72777286582</v>
       </c>
       <c r="S2">
-        <v>0.009547919141854129</v>
+        <v>0.06412228261475861</v>
       </c>
       <c r="T2">
-        <v>0.009547919141854129</v>
+        <v>0.06412228261475862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H3">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>874.5971684814222</v>
+        <v>6551.286539863776</v>
       </c>
       <c r="R3">
-        <v>874.5971684814222</v>
+        <v>58961.57885877399</v>
       </c>
       <c r="S3">
-        <v>0.03066756968481642</v>
+        <v>0.1575199526789424</v>
       </c>
       <c r="T3">
-        <v>0.03066756968481642</v>
+        <v>0.1575199526789424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H4">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>419.7197365605842</v>
+        <v>3358.688434870536</v>
       </c>
       <c r="R4">
-        <v>419.7197365605842</v>
+        <v>30228.19591383482</v>
       </c>
       <c r="S4">
-        <v>0.01471738616695273</v>
+        <v>0.08075672466848305</v>
       </c>
       <c r="T4">
-        <v>0.01471738616695273</v>
+        <v>0.08075672466848305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H5">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J5">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>3638.069937619551</v>
+        <v>4774.986521412303</v>
       </c>
       <c r="R5">
-        <v>3638.069937619551</v>
+        <v>42974.87869271073</v>
       </c>
       <c r="S5">
-        <v>0.1275681734985554</v>
+        <v>0.1148103729425784</v>
       </c>
       <c r="T5">
-        <v>0.1275681734985554</v>
+        <v>0.1148103729425784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H6">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J6">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>11685.34857413101</v>
+        <v>11730.01989673922</v>
       </c>
       <c r="R6">
-        <v>11685.34857413101</v>
+        <v>105570.179070653</v>
       </c>
       <c r="S6">
-        <v>0.4097443424276819</v>
+        <v>0.2820380650143011</v>
       </c>
       <c r="T6">
-        <v>0.4097443424276819</v>
+        <v>0.282038065014301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H7">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J7">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>5607.80620141814</v>
+        <v>6013.701572698803</v>
       </c>
       <c r="R7">
-        <v>5607.80620141814</v>
+        <v>54123.31415428923</v>
       </c>
       <c r="S7">
-        <v>0.1966365701361055</v>
+        <v>0.1445941925135966</v>
       </c>
       <c r="T7">
-        <v>0.1966365701361055</v>
+        <v>0.1445941925135966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H8">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>1046.478843501473</v>
+        <v>1377.16215703464</v>
       </c>
       <c r="R8">
-        <v>1046.478843501473</v>
+        <v>12394.45941331176</v>
       </c>
       <c r="S8">
-        <v>0.03669456523909297</v>
+        <v>0.03311265909181825</v>
       </c>
       <c r="T8">
-        <v>0.03669456523909297</v>
+        <v>0.03311265909181826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H9">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>3361.252057119467</v>
+        <v>3383.075414058908</v>
       </c>
       <c r="R9">
-        <v>3361.252057119467</v>
+        <v>30447.67872653017</v>
       </c>
       <c r="S9">
-        <v>0.1178616114992984</v>
+        <v>0.08134308824521871</v>
       </c>
       <c r="T9">
-        <v>0.1178616114992984</v>
+        <v>0.08134308824521871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H10">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>1613.066996749454</v>
+        <v>1734.42211668714</v>
       </c>
       <c r="R10">
-        <v>1613.066996749454</v>
+        <v>15609.79905018426</v>
       </c>
       <c r="S10">
-        <v>0.05656186220564265</v>
+        <v>0.041702662230303</v>
       </c>
       <c r="T10">
-        <v>0.05656186220564265</v>
+        <v>0.041702662230303</v>
       </c>
     </row>
   </sheetData>
